--- a/DND Character Manager/src/dnd/character/manager/CheckData/DatabaseDesign.xlsx
+++ b/DND Character Manager/src/dnd/character/manager/CheckData/DatabaseDesign.xlsx
@@ -8,35 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edavi\OneDrive\Documents\NetBeansProjects\DND Character Manager\src\dnd\character\manager\CheckData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0511A82-69A9-4B94-B75E-92AD20DEACE0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9516E592-768C-492D-9B8B-6B67B8846089}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{AA1EC07C-8B85-4383-94A9-1B6D183A5980}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{AA1EC07C-8B85-4383-94A9-1B6D183A5980}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
-    <sheet name="Characters" sheetId="2" r:id="rId2"/>
-    <sheet name="CharacterRecord" sheetId="15" r:id="rId3"/>
-    <sheet name="EquipmentRecord" sheetId="9" r:id="rId4"/>
-    <sheet name="FeatRecord" sheetId="10" r:id="rId5"/>
-    <sheet name="MagicRecord" sheetId="11" r:id="rId6"/>
-    <sheet name="SkillRecord" sheetId="12" r:id="rId7"/>
-    <sheet name="WeaponRecord" sheetId="13" r:id="rId8"/>
-    <sheet name="Equipment" sheetId="3" r:id="rId9"/>
-    <sheet name="Feat" sheetId="4" r:id="rId10"/>
-    <sheet name="Magic" sheetId="5" r:id="rId11"/>
-    <sheet name="Skill" sheetId="6" r:id="rId12"/>
-    <sheet name="Weapon" sheetId="7" r:id="rId13"/>
+    <sheet name="PlayerName" sheetId="16" r:id="rId2"/>
+    <sheet name="Characters" sheetId="2" r:id="rId3"/>
+    <sheet name="Money" sheetId="25" r:id="rId4"/>
+    <sheet name="CharacterRecord" sheetId="15" r:id="rId5"/>
+    <sheet name="SkillProfRecord" sheetId="23" r:id="rId6"/>
+    <sheet name="SkillProf" sheetId="24" r:id="rId7"/>
+    <sheet name="LangAndProfRecord" sheetId="21" r:id="rId8"/>
+    <sheet name="LangAndProf" sheetId="22" r:id="rId9"/>
+    <sheet name="EquipmentRecord" sheetId="9" r:id="rId10"/>
+    <sheet name="Equipment" sheetId="3" r:id="rId11"/>
+    <sheet name="AllyRecord" sheetId="19" r:id="rId12"/>
+    <sheet name="Ally" sheetId="20" r:id="rId13"/>
+    <sheet name="FeatRecord" sheetId="10" r:id="rId14"/>
+    <sheet name="Feat" sheetId="4" r:id="rId15"/>
+    <sheet name="MagicRecord" sheetId="11" r:id="rId16"/>
+    <sheet name="Magic" sheetId="5" r:id="rId17"/>
+    <sheet name="WeaponRecord" sheetId="13" r:id="rId18"/>
+    <sheet name="Weapon" sheetId="7" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CharacterRecord!$A$1:$N$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Characters!$A$1:$B$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Players!$A$1:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EquipmentRecord!$A$1:$B$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FeatRecord!$A$1:$B$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MagicRecord!$A$1:$B$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Players!$A$1:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">SkillRecord!$A$1:$B$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">WeaponRecord!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Ally!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">AllyRecord!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CharacterRecord!$A$1:$BB$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Characters!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Equipment!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">EquipmentRecord!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Feat!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">FeatRecord!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">LangAndProf!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">LangAndProfRecord!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Magic!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">MagicRecord!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Money!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PlayerName!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Players!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">SkillProf!$A$1:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SkillProfRecord!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Weapon!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">WeaponRecord!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="194">
   <si>
     <t>Username</t>
   </si>
@@ -86,12 +102,6 @@
     <t>Background</t>
   </si>
   <si>
-    <t>AlignmentGE</t>
-  </si>
-  <si>
-    <t>AlignmentLC</t>
-  </si>
-  <si>
     <t>STR</t>
   </si>
   <si>
@@ -119,10 +129,529 @@
     <t>MagicID</t>
   </si>
   <si>
-    <t>SkillID</t>
-  </si>
-  <si>
     <t>WeaponID</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>CurrentHP</t>
+  </si>
+  <si>
+    <t>TempHP</t>
+  </si>
+  <si>
+    <t>ArmorClass</t>
+  </si>
+  <si>
+    <t>DeathSaveSUC</t>
+  </si>
+  <si>
+    <t>DeathSaveFAIL</t>
+  </si>
+  <si>
+    <t>SpellSave</t>
+  </si>
+  <si>
+    <t>SpellAttack</t>
+  </si>
+  <si>
+    <t>SPellCastingAbility</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Inspiration</t>
+  </si>
+  <si>
+    <t>PersonalityTraits</t>
+  </si>
+  <si>
+    <t>Ideals</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>Flaws</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>CustomBackstory</t>
+  </si>
+  <si>
+    <t>EyeColor</t>
+  </si>
+  <si>
+    <t>HairColor</t>
+  </si>
+  <si>
+    <t>SkinColor</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>AllyID</t>
+  </si>
+  <si>
+    <t>LangAndProfID</t>
+  </si>
+  <si>
+    <t>SkillProfID</t>
+  </si>
+  <si>
+    <t>Acrobatics</t>
+  </si>
+  <si>
+    <t>AnimalHandling</t>
+  </si>
+  <si>
+    <t>Arcana</t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>Deception</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t>Intimidation</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Perception</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>SlightofHand</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Animal Handling</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>Charisma</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>Sleight of Hand</t>
+  </si>
+  <si>
+    <t>Constitution</t>
   </si>
 </sst>
 </file>
@@ -166,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -348,11 +877,203 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -367,6 +1088,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,22 +1427,19 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -709,128 +1449,5089 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D10" xr:uid="{3367D1D9-E1D7-43A4-9340-A098F4258C32}"/>
+  <autoFilter ref="A1:C10" xr:uid="{3367D1D9-E1D7-43A4-9340-A098F4258C32}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F9DCA1-B8A1-4824-A64F-8C4D9A37BC9C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5F7090-C884-4EC9-B95F-8E3828BD6F2E}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B10" xr:uid="{7F00D693-54D0-48B8-B146-BC9C91090B89}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEECF22-DA08-4963-995D-F4B44D4BA476}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E97D4-7096-49DA-8BC1-C163264D8CE6}">
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D112" xr:uid="{E25CB2A9-D5DC-4695-9A10-71A81D0FCBD1}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83559C9A-D727-45C6-96E5-ADF020853D9A}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7DED90-F15F-4F9D-AFC8-BADEB4C4B40E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B10" xr:uid="{2627EC40-EE5B-4C41-A293-2A0C5556B8FD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6DEBEE-B664-4EA5-86C2-0A58863DBE20}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8D5CA4-D12A-4E2D-8905-6FB7BC72AA78}">
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D112" xr:uid="{9F10A8C6-DDEF-4ED7-A19D-3AB41D95A77C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCF1201-81DF-4A56-AA63-91F6FB8B8B94}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B10" xr:uid="{E70D3D3C-59D1-4F24-95AE-AF457C6057B9}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F9DCA1-B8A1-4824-A64F-8C4D9A37BC9C}">
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D112" xr:uid="{4252FE97-C511-435B-8DF1-D4F2659DA104}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE92C89-1065-4AFD-B10C-B3E6A98841E0}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B10" xr:uid="{B50BA686-81EC-43B4-993B-4CCC68018DF1}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEECF22-DA08-4963-995D-F4B44D4BA476}">
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D112" xr:uid="{E5336EBB-7DC8-4EB2-88B1-0D39EDDF150B}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFFB61D-6F7D-4DF6-88E5-7A32E6DED013}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B10" xr:uid="{A72AF04F-4F96-48D0-AB48-69412A57B8BB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6DEBEE-B664-4EA5-86C2-0A58863DBE20}">
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D112" xr:uid="{5A55BA86-24B6-4201-AC53-585F7DDB925C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AEA289-1B9A-4D56-B9F7-881BA20C62BB}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B10" xr:uid="{FA016936-79AD-4BB8-980C-3908849B5350}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651ED0CB-AFBB-4C16-8E3F-8EB5290D8BAC}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -889,12 +6590,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47442984-42FD-4B23-A8E2-78A4DBBDBD38}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F10" xr:uid="{6F349978-D899-49E9-964C-586D931F12A1}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219D8D68-E2BC-4902-A538-17C20CDF2C6F}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -906,18 +6724,58 @@
     <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -937,31 +6795,151 @@
         <v>9</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -975,9 +6953,49 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="4"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="5"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -991,9 +7009,49 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="7"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1007,9 +7065,49 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="7"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1023,9 +7121,49 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="2"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="7"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1039,9 +7177,49 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="7"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1055,9 +7233,49 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="2"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="7"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1071,9 +7289,49 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="2"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="7"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1087,9 +7345,49 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="2"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="7"/>
+    </row>
+    <row r="10" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1103,295 +7401,63 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N10" xr:uid="{F7387058-B7AC-4482-858C-BA16883B5489}"/>
+  <autoFilter ref="A1:BB10" xr:uid="{F7387058-B7AC-4482-858C-BA16883B5489}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5F7090-C884-4EC9-B95F-8E3828BD6F2E}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E19153-F080-415E-A994-F88CD12CF4CD}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B10" xr:uid="{7F00D693-54D0-48B8-B146-BC9C91090B89}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCF1201-81DF-4A56-AA63-91F6FB8B8B94}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B10" xr:uid="{E70D3D3C-59D1-4F24-95AE-AF457C6057B9}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE92C89-1065-4AFD-B10C-B3E6A98841E0}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B10" xr:uid="{B50BA686-81EC-43B4-993B-4CCC68018DF1}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BA93E5-1D45-4974-B630-753702912E02}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B10" xr:uid="{FE303F97-4D62-47AB-8EB2-BB07D7B1E260}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFFB61D-6F7D-4DF6-88E5-7A32E6DED013}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +7472,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,21 +7512,1303 @@
       <c r="B10" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B10" xr:uid="{A72AF04F-4F96-48D0-AB48-69412A57B8BB}"/>
+  <autoFilter ref="A1:B10" xr:uid="{0C981E29-9CBC-4B3F-9F9A-34C3CA2CE87B}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34738716-FB11-4791-A39C-57B8DCA56E5F}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C25" xr:uid="{5E9FD430-A1C7-45A5-94E4-8CA3264B57F2}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05427172-3746-46C3-8BE2-FBC85FF11FF8}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B10" xr:uid="{BABF5331-B0A4-4889-B212-D4CEFE0BB37A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E97D4-7096-49DA-8BC1-C163264D8CE6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04BE60C-CF5C-4243-B5B9-CCFDE24EFC18}">
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection sqref="A1:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D112" xr:uid="{3E710803-36F9-47E5-828F-8E0F8098BB78}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D118">
+    <sortCondition ref="A2:A118"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
